--- a/biology/Botanique/Centaurée_à_gros_capitules/Centaurée_à_gros_capitules.xlsx
+++ b/biology/Botanique/Centaurée_à_gros_capitules/Centaurée_à_gros_capitules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centaur%C3%A9e_%C3%A0_gros_capitules</t>
+          <t>Centaurée_à_gros_capitules</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centaurea macrocephala
 La centaurée à grosse tête (Centaurea macrocephala) est une espèce de plantes à fleurs du genre Centaurea, famille des Asteraceae (ou Composées). Elle est indigène en Arménie et dans le Caucase, souvent plantée dans les jardins.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centaur%C3%A9e_%C3%A0_gros_capitules</t>
+          <t>Centaurée_à_gros_capitules</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont de grandes plantes vivaces robustes, à tige épaisse et velue. Elles ont de nombreuses feuilles sessiles à poils fins, oblongues et ondulées, entières ou grossièrement lobées, les supérieures (bractées extérieures de l'involucre ?) étant terminées par une fine épine. L'inflorescence est un gros capitule solitaire, à fleurons jaunes ligulés. Involucre à bractées brun clair plus larges que longues, souvent fendues par le milieu, avec des cils blanchâtres assez longs.
 </t>
